--- a/fichier_config.xlsx
+++ b/fichier_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aeroportsdeparis-my.sharepoint.com/personal/wassim_zouitene_adp_fr/Documents/Documents/GitHub/pifprevi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{EFEDD9F9-1FAF-4513-94F4-CD4BC3E5CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8EF1322-70B5-41F2-B535-6EB207EEC086}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{EFEDD9F9-1FAF-4513-94F4-CD4BC3E5CE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96D3BD0-7350-4D92-978F-7E051C469475}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="7230" windowWidth="19200" windowHeight="10500" activeTab="7" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="15" xr2:uid="{1E9F1C0A-3D2F-4596-8E04-B8791B8B0FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Terminal 1" sheetId="13" r:id="rId13"/>
     <sheet name="Terminal 1_5" sheetId="14" r:id="rId14"/>
     <sheet name="Terminal 1_6" sheetId="15" r:id="rId15"/>
+    <sheet name="dispatch_sat" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="53">
   <si>
     <t>terminal</t>
   </si>
@@ -170,6 +171,45 @@
   </si>
   <si>
     <t>ABCDT1</t>
+  </si>
+  <si>
+    <t>sat5</t>
+  </si>
+  <si>
+    <t>sat6</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>LH</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>EW</t>
+  </si>
+  <si>
+    <t>GQ</t>
+  </si>
+  <si>
+    <t>SN</t>
   </si>
 </sst>
 </file>
@@ -1272,6 +1312,74 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950742B2-FA79-431D-B1B2-E7A47C082980}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D183C703-6630-48FD-BED8-403B53F08B46}">
   <dimension ref="A1:E4"/>
@@ -1969,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3C2BD-92D4-480B-ABD9-703428D57CC7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
